--- a/Client/Assets/Data/RandomEvent.xlsx
+++ b/Client/Assets/Data/RandomEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A83DE0F-FFAB-4412-9611-EB0342FB3F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C32B1D-7813-4640-A6BC-68E84FA1984A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 11：获得随机1-3张rank2本职业技能卡
 12：获得随机1-3张rank3本职业技能卡
 13：获得随机1-3张rank4本职业技能卡
-14：获得随机1-3张rank5本职业技能卡
+14：————————
 15：获得随机当前未持有的圣遗物
 16：获得随机宝箱当前未持有圣遗物
 17：获得随机商店当前未持有圣遗物
@@ -596,7 +596,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/RandomEvent.xlsx
+++ b/Client/Assets/Data/RandomEvent.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C32B1D-7813-4640-A6BC-68E84FA1984A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21240" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E14D3D00-D955-404A-A1DB-7EBBD9D72663}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -46,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -86,220 +71,575 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始图像</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>选项1描述</t>
+  </si>
+  <si>
+    <t>选项1结果描述</t>
+  </si>
+  <si>
+    <t>选项1图像</t>
+  </si>
+  <si>
+    <t>选项1效果列表</t>
+  </si>
+  <si>
+    <t>选项2描述</t>
+  </si>
+  <si>
+    <t>选项2结果描述</t>
+  </si>
+  <si>
+    <t>选项2图像</t>
+  </si>
+  <si>
+    <t>选项2效果列表</t>
+  </si>
+  <si>
+    <t>选项3描述</t>
+  </si>
+  <si>
+    <t>选项3结果描述</t>
+  </si>
+  <si>
+    <t>选项3图像</t>
+  </si>
+  <si>
+    <t>选项3效果列表</t>
+  </si>
+  <si>
+    <t>选项4描述</t>
+  </si>
+  <si>
+    <t>选项4结果描述</t>
+  </si>
+  <si>
+    <t>选项4图像</t>
+  </si>
+  <si>
+    <t>选项4效果列表</t>
   </si>
   <si>
     <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1效果列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2效果列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项3描述</t>
-  </si>
-  <si>
-    <t>选项3图像</t>
-  </si>
-  <si>
-    <t>选项3效果列表</t>
-  </si>
-  <si>
-    <t>选项4描述</t>
-  </si>
-  <si>
-    <t>选项4图像</t>
-  </si>
-  <si>
-    <t>选项4效果列表</t>
-  </si>
-  <si>
-    <t>级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>des1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res1</t>
   </si>
   <si>
     <t>img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff1</t>
   </si>
   <si>
     <t>des2</t>
   </si>
   <si>
+    <t>res2</t>
+  </si>
+  <si>
     <t>img2</t>
   </si>
   <si>
+    <t>eff2</t>
+  </si>
+  <si>
     <t>des3</t>
   </si>
   <si>
+    <t>res3</t>
+  </si>
+  <si>
     <t>img3</t>
   </si>
   <si>
+    <t>eff3</t>
+  </si>
+  <si>
     <t>des4</t>
   </si>
   <si>
+    <t>res4</t>
+  </si>
+  <si>
     <t>img4</t>
   </si>
   <si>
-    <t>eff1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eff2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eff3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个奇怪的仪式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个奇怪的仪式1</t>
   </si>
   <si>
     <t>参加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你获得了{1}金钱,失去了{4}生命值</t>
   </si>
   <si>
     <t>1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>离开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1结果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2结果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无事发生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项3结果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项4结果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你获得了{1}金钱,失去了{4}生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个奇怪的仪式2</t>
+  </si>
+  <si>
+    <t>你获得了{3}生命,失去了{2}金币</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>一个奇怪的仪式3</t>
+  </si>
+  <si>
+    <t>你获得了卡牌,失去了{6}生命上限</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>一个奇怪的仪式4</t>
+  </si>
+  <si>
+    <t>你获得了1级卡牌,失去了{2}金币</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>一个奇怪的仪式5</t>
+  </si>
+  <si>
+    <t>你获得了1级卡牌,失去了{4}生命值</t>
+  </si>
+  <si>
+    <t>10,4</t>
+  </si>
+  <si>
+    <t>一个奇怪的仪式6</t>
+  </si>
+  <si>
+    <t>你获得了2级卡牌,失去了{2}金币</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>一个奇怪的仪式7</t>
+  </si>
+  <si>
+    <t>你获得了遗物,失去了1张随机牌</t>
+  </si>
+  <si>
+    <t>15,8</t>
+  </si>
+  <si>
+    <t>一个奇怪的仪式8</t>
+  </si>
+  <si>
+    <t>你获得了遗物,失去了{6}生命上限</t>
+  </si>
+  <si>
+    <t>15,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,24 +647,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -373,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -408,7 +1034,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -582,28 +1208,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="10" width="15.125" customWidth="1"/>
@@ -616,7 +1237,7 @@
     <col min="20" max="20" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,16 +1245,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -645,125 +1266,286 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
+      <c r="T2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/RandomEvent.xlsx
+++ b/Client/Assets/Data/RandomEvent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12255"/>
+    <workbookView windowWidth="28455" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,25 @@
 11：获得随机1-3张rank2本职业技能卡
 12：获得随机1-3张rank3本职业技能卡
 13：获得随机1-3张rank4本职业技能卡
-14：————————
-15：获得随机当前未持有的圣遗物
-16：获得随机宝箱当前未持有圣遗物
-17：获得随机商店当前未持有圣遗物
-18：获得随机精英当前未持有圣遗物
-19：获得随机BOSS当前未持有圣遗物
+14：获得随机1张当前级别本职业技能卡
+15：获得随机当前级别未持有的圣遗物
+16：获得随机rank0未持有圣遗物
+17：获得随机rank1未持有圣遗物
+18：获得随机rank2未持有圣遗物
+19：获得随机rank3未持有圣遗物
 20:失去角色初始圣遗物
 21：接下来每场战斗结束后看广告
 22：接下来每场战斗结束后金钱奖励翻倍
 23：获得一次重生能力
 24：完全恢复
 25：失去所有金钱
-26：获得随机诅咒圣遗物（当前未持有）</t>
+26：获得随机诅咒圣遗物（当前未持有）
+27：获得随机rank4未持有圣遗物
+28：经验奖励增加50%，持续1-3战斗
+29：经验减少增加50%，持续1-3战斗
+30：提升1级
+31：无法再获得经验值
+32：后续怪物强度增加</t>
         </r>
       </text>
     </comment>
@@ -71,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -190,7 +196,7 @@
     <t>eff4</t>
   </si>
   <si>
-    <t>一个奇怪的仪式1</t>
+    <t>你可以获得金钱,但要失去生命值</t>
   </si>
   <si>
     <t>参加</t>
@@ -208,7 +214,7 @@
     <t>无事发生</t>
   </si>
   <si>
-    <t>一个奇怪的仪式2</t>
+    <t>你可以获得生命,但要失去金币</t>
   </si>
   <si>
     <t>你获得了{3}生命,失去了{2}金币</t>
@@ -217,16 +223,16 @@
     <t>3,2</t>
   </si>
   <si>
-    <t>一个奇怪的仪式3</t>
-  </si>
-  <si>
-    <t>你获得了卡牌,失去了{6}生命上限</t>
+    <t>你可以获得任意级别卡牌,但要失去生命上限</t>
+  </si>
+  <si>
+    <t>你获得了任意级别卡牌,失去了{6}生命上限</t>
   </si>
   <si>
     <t>7,6</t>
   </si>
   <si>
-    <t>一个奇怪的仪式4</t>
+    <t>你可以获得1级卡牌,但要失去金币</t>
   </si>
   <si>
     <t>你获得了1级卡牌,失去了{2}金币</t>
@@ -235,16 +241,16 @@
     <t>10,2</t>
   </si>
   <si>
-    <t>一个奇怪的仪式5</t>
-  </si>
-  <si>
-    <t>你获得了1级卡牌,失去了{4}生命值</t>
-  </si>
-  <si>
-    <t>10,4</t>
-  </si>
-  <si>
-    <t>一个奇怪的仪式6</t>
+    <t>你可以获得1级遗物,但要失去生命值</t>
+  </si>
+  <si>
+    <t>你获得了1级遗物,失去了{4}生命值</t>
+  </si>
+  <si>
+    <t>17,4</t>
+  </si>
+  <si>
+    <t>你可以获得2级卡牌,但要失去金币</t>
   </si>
   <si>
     <t>你获得了2级卡牌,失去了{2}金币</t>
@@ -253,22 +259,13 @@
     <t>11,2</t>
   </si>
   <si>
-    <t>一个奇怪的仪式7</t>
-  </si>
-  <si>
-    <t>你获得了遗物,失去了1张随机牌</t>
-  </si>
-  <si>
-    <t>15,8</t>
-  </si>
-  <si>
-    <t>一个奇怪的仪式8</t>
-  </si>
-  <si>
-    <t>你获得了遗物,失去了{6}生命上限</t>
-  </si>
-  <si>
-    <t>15,2</t>
+    <t>你可以获得2级遗物,但要失去1张随机牌</t>
+  </si>
+  <si>
+    <t>你获得了2级遗物,失去了1张随机牌</t>
+  </si>
+  <si>
+    <t>18,8</t>
   </si>
 </sst>
 </file>
@@ -276,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -287,6 +284,72 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,52 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,61 +394,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,109 +451,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,61 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,6 +642,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -657,13 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +695,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,47 +737,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,7 +760,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,7 +769,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,115 +778,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,15 +1211,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
     <col min="6" max="6" width="37.5" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
@@ -1519,29 +1516,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Client/Assets/Data/RandomEvent.xlsx
+++ b/Client/Assets/Data/RandomEvent.xlsx
@@ -250,22 +250,22 @@
     <t>17,4</t>
   </si>
   <si>
-    <t>你可以获得2级卡牌,但要失去金币</t>
-  </si>
-  <si>
-    <t>你获得了2级卡牌,失去了{2}金币</t>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>你可以获得2级遗物,但要失去1张随机牌</t>
-  </si>
-  <si>
-    <t>你获得了2级遗物,失去了1张随机牌</t>
-  </si>
-  <si>
-    <t>18,8</t>
+    <t>你可以获得2级卡牌,但要失去初始遗物,失去金币</t>
+  </si>
+  <si>
+    <t>你获得了2级卡牌,失去了初始遗物,失去了{2}金币</t>
+  </si>
+  <si>
+    <t>11,2,20</t>
+  </si>
+  <si>
+    <t>你可以获得2级遗物,但要失去初始遗物,失去生命上限</t>
+  </si>
+  <si>
+    <t>你获得了2级遗物,失去了初始遗物,失去了{6}生命上限</t>
+  </si>
+  <si>
+    <t>18,20,6</t>
   </si>
 </sst>
 </file>
@@ -273,10 +273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -287,9 +287,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,35 +318,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,9 +391,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,52 +409,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -451,31 +451,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,151 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,6 +642,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -664,22 +682,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,22 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,9 +734,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,133 +760,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1355,7 +1355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" customFormat="1" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
